--- a/Doc/建筑工厂建筑.xlsx
+++ b/Doc/建筑工厂建筑.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resilio\Personal\DSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProjects\DysonSphereProgramBlueprints\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D6B61-8269-4C32-808C-F9927C1E2941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0920B5-6A3B-4FBA-88DD-18A41AEDA23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>化工厂</t>
-  </si>
-  <si>
-    <t>急速传送带</t>
   </si>
   <si>
     <t>急速分拣器</t>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>地基</t>
+  </si>
+  <si>
+    <t>极速传送带</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1479,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1548,71 +1548,71 @@
   <sheetData>
     <row r="1" spans="1:114" x14ac:dyDescent="0.35">
       <c r="M1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
@@ -1625,11 +1625,11 @@
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
       <c r="BE1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BF1" s="2"/>
       <c r="BG1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="BL1" s="2"/>
       <c r="BM1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BN1" s="2"/>
       <c r="BO1" s="2" t="str">
@@ -1651,7 +1651,7 @@
       <c r="BQ1" s="2"/>
       <c r="BR1" s="2"/>
       <c r="BS1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BT1" s="2"/>
       <c r="BU1" s="2"/>
@@ -1664,25 +1664,25 @@
       <c r="BY1" s="2"/>
       <c r="BZ1" s="2"/>
       <c r="CA1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CB1" s="2"/>
       <c r="CC1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CD1" s="2"/>
       <c r="CE1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CF1" s="2"/>
       <c r="CG1" s="2"/>
       <c r="CH1" s="2"/>
       <c r="CI1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CJ1" s="2"/>
       <c r="CK1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CL1" s="2"/>
       <c r="CM1" s="2" t="str">
@@ -1705,11 +1705,11 @@
       <c r="CU1" s="2"/>
       <c r="CV1" s="2"/>
       <c r="CW1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CX1" s="2"/>
       <c r="CY1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CZ1" s="2"/>
       <c r="DA1" s="2" t="str">
@@ -1723,27 +1723,27 @@
       </c>
       <c r="DD1" s="2"/>
       <c r="DE1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DH1" s="2"/>
       <c r="DI1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DJ1" s="2"/>
     </row>
     <row r="2" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1755,17 +1755,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
@@ -1773,27 +1773,27 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2" t="s">
@@ -1805,167 +1805,167 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BL2" s="2"/>
       <c r="BM2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BR2" s="2"/>
       <c r="BS2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BT2" s="2"/>
       <c r="BU2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BV2" s="2"/>
       <c r="BW2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BX2" s="2"/>
       <c r="BY2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CB2" s="2"/>
       <c r="CC2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CD2" s="2"/>
       <c r="CE2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CF2" s="2"/>
       <c r="CG2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CH2" s="2"/>
       <c r="CI2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CJ2" s="2"/>
       <c r="CK2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CL2" s="2"/>
       <c r="CM2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CN2" s="2"/>
       <c r="CO2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CP2" s="2"/>
       <c r="CQ2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CR2" s="2"/>
       <c r="CS2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CT2" s="2"/>
       <c r="CU2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="CV2" s="2"/>
       <c r="CW2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CX2" s="2"/>
       <c r="CY2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="CZ2" s="2"/>
       <c r="DA2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DB2" s="2"/>
       <c r="DC2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="DD2" s="2"/>
       <c r="DE2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="DF2" s="2"/>
       <c r="DG2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="DH2" s="2"/>
       <c r="DI2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DJ2" s="2"/>
     </row>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2303,13 +2303,13 @@
     </row>
     <row r="4" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>56.25</v>
@@ -2547,19 +2547,19 @@
     </row>
     <row r="5" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2794,19 +2794,19 @@
     </row>
     <row r="6" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2826,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3044,19 +3044,19 @@
     </row>
     <row r="7" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <v>9.375</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>1.25</v>
@@ -3291,13 +3291,13 @@
     </row>
     <row r="8" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>14.0625</v>
@@ -3538,19 +3538,19 @@
     </row>
     <row r="9" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>11.25</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>1.25</v>
@@ -3788,19 +3788,19 @@
     </row>
     <row r="10" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>9.375</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>1.25</v>
@@ -4038,19 +4038,19 @@
     </row>
     <row r="11" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>5.625</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>1.25</v>
@@ -4288,19 +4288,19 @@
     </row>
     <row r="12" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>1.875</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1.25</v>
@@ -4538,19 +4538,19 @@
     </row>
     <row r="13" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>7.03125</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>1.25</v>
@@ -4791,19 +4791,19 @@
     </row>
     <row r="14" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>3.75</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>1.25</v>
@@ -5041,19 +5041,19 @@
     </row>
     <row r="15" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>11.25</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>1.25</v>
@@ -5288,19 +5288,19 @@
     </row>
     <row r="16" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -5532,13 +5532,13 @@
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>11.25</v>
@@ -5782,13 +5782,13 @@
     </row>
     <row r="18" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18">
         <v>14.0625</v>
@@ -6032,13 +6032,13 @@
     </row>
     <row r="19" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>7.03125</v>
@@ -6282,13 +6282,13 @@
     </row>
     <row r="20" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20">
         <v>9.375</v>
@@ -6532,19 +6532,19 @@
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>2.8125</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>1.25</v>
@@ -6785,13 +6785,13 @@
     </row>
     <row r="22" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>168.75</v>
@@ -7029,13 +7029,13 @@
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>135</v>
@@ -7276,19 +7276,19 @@
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -7526,13 +7526,13 @@
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>18.75</v>
@@ -7776,13 +7776,13 @@
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>28.125</v>
@@ -8026,19 +8026,19 @@
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>14.0625</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <v>1.25</v>
@@ -8276,13 +8276,13 @@
     </row>
     <row r="28" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <v>28.125</v>
@@ -8523,13 +8523,13 @@
     </row>
     <row r="29" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>112.5</v>
@@ -8767,13 +8767,13 @@
     </row>
     <row r="30" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <v>90</v>
@@ -9014,19 +9014,19 @@
     </row>
     <row r="31" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31">
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -9261,13 +9261,13 @@
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>28.125</v>
@@ -9508,19 +9508,19 @@
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -9758,19 +9758,19 @@
     </row>
     <row r="34" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>11.25</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -9790,7 +9790,7 @@
         <v>11.25</v>
       </c>
       <c r="K34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -10008,13 +10008,13 @@
     </row>
     <row r="35" spans="1:114" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>18.75</v>
@@ -10258,19 +10258,19 @@
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -10511,19 +10511,19 @@
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>3.75</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>1.25</v>
@@ -10764,19 +10764,19 @@
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <v>18.75</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>1.25</v>
@@ -11014,13 +11014,13 @@
     </row>
     <row r="39" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39">
         <v>11.25</v>
@@ -11264,19 +11264,19 @@
     </row>
     <row r="40" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <v>4.5</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -11517,13 +11517,13 @@
     </row>
     <row r="41" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>18.75</v>
@@ -11767,13 +11767,13 @@
     </row>
     <row r="42" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <v>28.125</v>
@@ -12011,13 +12011,13 @@
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>14.0625</v>
@@ -12255,13 +12255,13 @@
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44">
         <v>28.125</v>
@@ -12502,19 +12502,19 @@
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>2.8125</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45">
         <v>1.25</v>
@@ -12752,19 +12752,19 @@
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>1.5</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -12784,7 +12784,7 @@
         <v>1.5</v>
       </c>
       <c r="K46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -13002,19 +13002,19 @@
     </row>
     <row r="47" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47">
         <v>1.5</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -13034,10 +13034,10 @@
         <v>1.5</v>
       </c>
       <c r="K47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="N47">
         <f t="shared" si="48"/>
@@ -13252,19 +13252,19 @@
     </row>
     <row r="48" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <v>11.25</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -13496,19 +13496,19 @@
     </row>
     <row r="49" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>7.5</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -13732,19 +13732,19 @@
     </row>
     <row r="50" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50">
         <v>9.375</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50">
         <v>1.25</v>
@@ -13982,19 +13982,19 @@
     </row>
     <row r="51" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51">
         <v>1.875</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51">
         <v>1.25</v>
@@ -14232,19 +14232,19 @@
     </row>
     <row r="52" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52">
         <v>56.25</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F52">
         <v>1.25</v>
@@ -14494,19 +14494,19 @@
     </row>
     <row r="54" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54">
         <v>168.75</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54">
         <v>1.25</v>
@@ -14741,19 +14741,19 @@
     </row>
     <row r="55" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55">
         <v>281</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55">
         <v>1.25</v>
@@ -14985,19 +14985,19 @@
     </row>
     <row r="56" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56">
         <v>581.25</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56">
         <v>1.25</v>
@@ -15235,19 +15235,19 @@
     </row>
     <row r="57" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57">
         <v>225</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57">
         <v>1.25</v>
@@ -15485,19 +15485,19 @@
     </row>
     <row r="58" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58">
         <v>16.875</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F58">
         <v>1.25</v>
@@ -15732,19 +15732,19 @@
     </row>
     <row r="59" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59">
         <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F59">
         <v>1.25</v>
@@ -15979,19 +15979,19 @@
     </row>
     <row r="60" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <v>159.375</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F60">
         <v>1.25</v>
@@ -16226,19 +16226,19 @@
     </row>
     <row r="61" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61">
         <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F61">
         <v>1.25</v>
@@ -16473,19 +16473,19 @@
     </row>
     <row r="62" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62">
         <v>46.875</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62">
         <v>1.25</v>
@@ -16720,7 +16720,7 @@
     </row>
     <row r="64" spans="1:114" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N64">
         <f>SUM(N4:N62)</f>
@@ -17022,6 +17022,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="DA1:DB1"/>
+    <mergeCell ref="DC1:DD1"/>
+    <mergeCell ref="DE1:DF1"/>
+    <mergeCell ref="DG1:DH1"/>
+    <mergeCell ref="DI1:DJ1"/>
+    <mergeCell ref="CM1:CN1"/>
+    <mergeCell ref="CO1:CR1"/>
+    <mergeCell ref="CS1:CV1"/>
+    <mergeCell ref="CW1:CX1"/>
+    <mergeCell ref="CY1:CZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CH1"/>
+    <mergeCell ref="CI1:CJ1"/>
+    <mergeCell ref="CK1:CL1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="AW66:AZ66"/>
+    <mergeCell ref="BG66:BJ66"/>
+    <mergeCell ref="CS66:CV66"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BS66:BV66"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI66:AL66"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CE66:CH66"/>
+    <mergeCell ref="AS66:AV66"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO66:AR66"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CO66:CR66"/>
+    <mergeCell ref="BA66:BD66"/>
+    <mergeCell ref="BO66:BR66"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BW66:BZ66"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="M66:P66"/>
     <mergeCell ref="DI2:DJ2"/>
     <mergeCell ref="BU2:BV2"/>
@@ -17046,92 +17132,6 @@
     <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AW66:AZ66"/>
-    <mergeCell ref="BG66:BJ66"/>
-    <mergeCell ref="CS66:CV66"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BS66:BV66"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI66:AL66"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CE66:CH66"/>
-    <mergeCell ref="AS66:AV66"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AO66:AR66"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CO66:CR66"/>
-    <mergeCell ref="BA66:BD66"/>
-    <mergeCell ref="BO66:BR66"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BW66:BZ66"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CH1"/>
-    <mergeCell ref="CI1:CJ1"/>
-    <mergeCell ref="CK1:CL1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="DA1:DB1"/>
-    <mergeCell ref="DC1:DD1"/>
-    <mergeCell ref="DE1:DF1"/>
-    <mergeCell ref="DG1:DH1"/>
-    <mergeCell ref="DI1:DJ1"/>
-    <mergeCell ref="CM1:CN1"/>
-    <mergeCell ref="CO1:CR1"/>
-    <mergeCell ref="CS1:CV1"/>
-    <mergeCell ref="CW1:CX1"/>
-    <mergeCell ref="CY1:CZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="DC59 DC62:DJ176 DD59:DJ61 O67:CZ176 BE66:BG66 BW66 CA66:CE66 AW66 AS66 CW66:CZ66 AM66:AO66 P4:CZ4 CI66:CN66 BA66 BK66:BO66 M66 Q66:AI66 DC4:DJ58 O5:CZ65">
@@ -18173,23 +18173,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/建筑工厂建筑.xlsx
+++ b/Doc/建筑工厂建筑.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/GitHub/DysonSphereProgramBlueprints/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7F6480-56A8-AA4D-818C-77CB93F74DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91F5EA-232C-AD4C-A79D-1B41B43A4CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37180" yWindow="500" windowWidth="33480" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
+    <workbookView xWindow="-36500" yWindow="500" windowWidth="33480" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="144">
   <si>
     <t>建筑</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>1制作台1（备注：生产量由11.25手工调降到10）</t>
-  </si>
-  <si>
-    <t>dw</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1194,10 @@
   <dimension ref="A1:DV71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="CU25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X55" sqref="X55"/>
+      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1364,7 @@
       <c r="BN1" s="4"/>
       <c r="BO1" s="4" t="str">
         <f>A60</f>
-        <v>已选</v>
+        <v>未选</v>
       </c>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
@@ -1391,7 +1388,7 @@
       <c r="CB1" s="4"/>
       <c r="CC1" s="4" t="str">
         <f>A62</f>
-        <v>已选</v>
+        <v>未选</v>
       </c>
       <c r="CD1" s="4"/>
       <c r="CE1" s="4"/>
@@ -1464,15 +1461,15 @@
       </c>
       <c r="DP1" s="4"/>
       <c r="DQ1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DR1" s="4"/>
       <c r="DS1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DT1" s="4"/>
       <c r="DU1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DV1" s="4"/>
     </row>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>115</v>
@@ -2924,7 +2921,7 @@
     </row>
     <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>115</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="10" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>115</v>
@@ -4580,7 +4577,7 @@
     </row>
     <row r="13" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -11175,25 +11172,25 @@
         <v>0</v>
       </c>
       <c r="DP36">
-        <f t="shared" ref="DP36:DP67" si="81">L36*DO36</f>
+        <f t="shared" ref="DP36:DP55" si="81">L36*DO36</f>
         <v>0</v>
       </c>
       <c r="DR36">
-        <f t="shared" ref="DR36:DR67" si="82">L36*DQ36</f>
+        <f t="shared" ref="DR36:DR55" si="82">L36*DQ36</f>
         <v>0</v>
       </c>
       <c r="DT36">
-        <f t="shared" ref="DT36:DT67" si="83">L36*DS36</f>
+        <f t="shared" ref="DT36:DT55" si="83">L36*DS36</f>
         <v>0</v>
       </c>
       <c r="DV36">
-        <f t="shared" ref="DV36:DV67" si="84">L36*DU36</f>
+        <f t="shared" ref="DV36:DV55" si="84">L36*DU36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
         <v>115</v>
@@ -15053,7 +15050,7 @@
     </row>
     <row r="51" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
         <v>115</v>
@@ -16798,7 +16795,7 @@
     </row>
     <row r="60" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -17235,8 +17232,9 @@
       <c r="BU61">
         <v>-1.25</v>
       </c>
-      <c r="BV61" t="s">
-        <v>144</v>
+      <c r="BV61">
+        <f t="shared" si="195"/>
+        <v>-618.75</v>
       </c>
       <c r="BX61">
         <f t="shared" si="196"/>
@@ -17345,7 +17343,7 @@
     </row>
     <row r="62" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
         <v>115</v>
@@ -19112,7 +19110,7 @@
       </c>
       <c r="BV69">
         <f>SUM(BV4:BV67)</f>
-        <v>210</v>
+        <v>-408.75</v>
       </c>
       <c r="BX69">
         <f>SUM(BX4:BX67)</f>
@@ -19285,7 +19283,7 @@
       <c r="BR71" s="4"/>
       <c r="BU71" s="4">
         <f>BV69+BX69</f>
-        <v>612.875</v>
+        <v>-5.875</v>
       </c>
       <c r="BV71" s="4"/>
       <c r="BW71" s="4"/>
@@ -19342,6 +19340,102 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="DK1:DN1"/>
+    <mergeCell ref="DK71:DN71"/>
+    <mergeCell ref="AI71:AL71"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BO71:BR71"/>
+    <mergeCell ref="DU1:DV1"/>
+    <mergeCell ref="DU2:DV2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CO1:CR1"/>
+    <mergeCell ref="CO71:CR71"/>
+    <mergeCell ref="DI1:DJ1"/>
+    <mergeCell ref="DO1:DP1"/>
+    <mergeCell ref="DQ1:DR1"/>
+    <mergeCell ref="DS1:DT1"/>
+    <mergeCell ref="CU1:CV1"/>
+    <mergeCell ref="CW1:CZ1"/>
+    <mergeCell ref="DA1:DD1"/>
+    <mergeCell ref="DE1:DF1"/>
+    <mergeCell ref="DG1:DH1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="CI1:CJ1"/>
+    <mergeCell ref="CK1:CN1"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="CS1:CT1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BU1:BX1"/>
+    <mergeCell ref="BY1:CB1"/>
+    <mergeCell ref="CC1:CF1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="BA71:BD71"/>
+    <mergeCell ref="BK71:BN71"/>
+    <mergeCell ref="DA71:DD71"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BY71:CB71"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM71:AP71"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CK71:CN71"/>
+    <mergeCell ref="AW71:AZ71"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AS71:AV71"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CW71:CZ71"/>
+    <mergeCell ref="BE71:BH71"/>
+    <mergeCell ref="BU71:BX71"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CC71:CF71"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="O71:R71"/>
     <mergeCell ref="DS2:DT2"/>
     <mergeCell ref="CA2:CB2"/>
@@ -19366,102 +19460,6 @@
     <mergeCell ref="BS2:BT2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="BA71:BD71"/>
-    <mergeCell ref="BK71:BN71"/>
-    <mergeCell ref="DA71:DD71"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BY71:CB71"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM71:AP71"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CK71:CN71"/>
-    <mergeCell ref="AW71:AZ71"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AS71:AV71"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CW71:CZ71"/>
-    <mergeCell ref="BE71:BH71"/>
-    <mergeCell ref="BU71:BX71"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CC71:CF71"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="CS1:CT1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BU1:BX1"/>
-    <mergeCell ref="BY1:CB1"/>
-    <mergeCell ref="CC1:CF1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BD1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="DK1:DN1"/>
-    <mergeCell ref="DK71:DN71"/>
-    <mergeCell ref="AI71:AL71"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BO71:BR71"/>
-    <mergeCell ref="DU1:DV1"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CO1:CR1"/>
-    <mergeCell ref="CO71:CR71"/>
-    <mergeCell ref="DI1:DJ1"/>
-    <mergeCell ref="DO1:DP1"/>
-    <mergeCell ref="DQ1:DR1"/>
-    <mergeCell ref="DS1:DT1"/>
-    <mergeCell ref="CU1:CV1"/>
-    <mergeCell ref="CW1:CZ1"/>
-    <mergeCell ref="DA1:DD1"/>
-    <mergeCell ref="DE1:DF1"/>
-    <mergeCell ref="DG1:DH1"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="CI1:CJ1"/>
-    <mergeCell ref="CK1:CN1"/>
-    <mergeCell ref="DM2:DN2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O71 S71:AI71 AM71 AQ71:AS71 AW71 BA71 BE71 BI71:BK71 BO71 BS71:BU71 CC71 CG71:CK71 DM4:DN63 DO4:DV181 DK58:DL63 DI58:DJ181 DK64 DM64 DL64:DL66 DK67:DN70 Q72:DH181 DK72:DN181 DE71:DH71">
@@ -19474,7 +19472,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:CN56 DI4:DL56 CO4:DH70 DN51:DN67 O57 Q57:AM57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 Q58:S58 U58:AH58 O58:P67 AI58:CN70 Q59:AH70">
+  <conditionalFormatting sqref="O4:CN56 DI4:DL56 CO4:DH70 DN51:DN67 O57 Q57:AM57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 Q58:S58 U58:AH58 O58:P67 Q59:AH70 AI58:CN70">
     <cfRule type="cellIs" dxfId="41" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -19487,7 +19485,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q57:AM57 O4:CN56 DI4:DV56 CO4:DH70 O57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 DM57:DV57 Q58:S58 U58:AH58 O58:P67 AI58:CN70 DI58:DV70 Q59:AH70 DO71:DV71 Q72:DV181">
+  <conditionalFormatting sqref="Q57:AM57 O4:CN56 DI4:DV56 CO4:DH70 O57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 DM57:DV57 Q58:S58 U58:AH58 O58:P67 DI58:DV70 Q59:AH70 DO71:DV71 Q72:DV181 AI58:CN70">
     <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -19908,7 +19906,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF96B592-B8B5-434D-8FD3-3AF94D84F5A6}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$3</xm:f>

--- a/Doc/建筑工厂建筑.xlsx
+++ b/Doc/建筑工厂建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/GitHub/DysonSphereProgramBlueprints/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91F5EA-232C-AD4C-A79D-1B41B43A4CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57CFCF9-A08D-FA41-93F5-077BC2BCA2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36500" yWindow="500" windowWidth="33480" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
@@ -1194,10 +1194,10 @@
   <dimension ref="A1:DV71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1334,7 +1334,7 @@
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
@@ -1381,7 +1381,7 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BZ1" s="4"/>
       <c r="CA1" s="4"/>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="18" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>115</v>
@@ -9538,7 +9538,7 @@
     </row>
     <row r="31" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
         <v>115</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="33" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>115</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="34" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
         <v>115</v>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="35" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>115</v>
@@ -11190,7 +11190,7 @@
     </row>
     <row r="37" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>115</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="41" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
         <v>115</v>
@@ -19340,6 +19340,102 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="O71:R71"/>
+    <mergeCell ref="DS2:DT2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DQ2:DR2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="BA71:BD71"/>
+    <mergeCell ref="BK71:BN71"/>
+    <mergeCell ref="DA71:DD71"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BY71:CB71"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM71:AP71"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CK71:CN71"/>
+    <mergeCell ref="AW71:AZ71"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AS71:AV71"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CW71:CZ71"/>
+    <mergeCell ref="BE71:BH71"/>
+    <mergeCell ref="BU71:BX71"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CC71:CF71"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="CS1:CT1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BU1:BX1"/>
+    <mergeCell ref="BY1:CB1"/>
+    <mergeCell ref="CC1:CF1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
     <mergeCell ref="DK1:DN1"/>
     <mergeCell ref="DK71:DN71"/>
     <mergeCell ref="AI71:AL71"/>
@@ -19364,102 +19460,6 @@
     <mergeCell ref="CI1:CJ1"/>
     <mergeCell ref="CK1:CN1"/>
     <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="CS1:CT1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BU1:BX1"/>
-    <mergeCell ref="BY1:CB1"/>
-    <mergeCell ref="CC1:CF1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BD1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="BA71:BD71"/>
-    <mergeCell ref="BK71:BN71"/>
-    <mergeCell ref="DA71:DD71"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BY71:CB71"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM71:AP71"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CK71:CN71"/>
-    <mergeCell ref="AW71:AZ71"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AS71:AV71"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CW71:CZ71"/>
-    <mergeCell ref="BE71:BH71"/>
-    <mergeCell ref="BU71:BX71"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CC71:CF71"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O71:R71"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="DE2:DF2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DQ2:DR2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="BQ2:BR2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O71 S71:AI71 AM71 AQ71:AS71 AW71 BA71 BE71 BI71:BK71 BO71 BS71:BU71 CC71 CG71:CK71 DM4:DN63 DO4:DV181 DK58:DL63 DI58:DJ181 DK64 DM64 DL64:DL66 DK67:DN70 Q72:DH181 DK72:DN181 DE71:DH71">
@@ -19472,7 +19472,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:CN56 DI4:DL56 CO4:DH70 DN51:DN67 O57 Q57:AM57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 Q58:S58 U58:AH58 O58:P67 Q59:AH70 AI58:CN70">
+  <conditionalFormatting sqref="O4:CN56 DI4:DL56 CO4:DH70 DN51:DN67 O57 Q57:AM57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 Q58:S58 U58:AH58 O58:P67 AI58:CN70 Q59:AH70">
     <cfRule type="cellIs" dxfId="41" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -19485,7 +19485,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q57:AM57 O4:CN56 DI4:DV56 CO4:DH70 O57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 DM57:DV57 Q58:S58 U58:AH58 O58:P67 DI58:DV70 Q59:AH70 DO71:DV71 Q72:DV181 AI58:CN70">
+  <conditionalFormatting sqref="Q57:AM57 O4:CN56 DI4:DV56 CO4:DH70 O57 AO57:BE57 BG57:BO57 BQ57:CN57 DI57:DK57 DM57:DV57 Q58:S58 U58:AH58 O58:P67 AI58:CN70 DI58:DV70 Q59:AH70 DO71:DV71 Q72:DV181">
     <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
